--- a/biology/Zoologie/Bibio_hortulanus/Bibio_hortulanus.xlsx
+++ b/biology/Zoologie/Bibio_hortulanus/Bibio_hortulanus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Bibio hortulanus, le bibion horticole, est une espèce d'insectes de l'ordre des diptères[1], de la famille des Bibionidae.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bibio hortulanus, le bibion horticole, est une espèce d'insectes de l'ordre des diptères, de la famille des Bibionidae.
 </t>
         </is>
       </c>
@@ -511,10 +523,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Comme chez la mouche de la Saint Marc, (Bibio marci), les antennes sont courtes et robustes, insérées sous les yeux. Les yeux sont nettement séparés chez la femelle, contigus et plus gros chez le mâle; la femelle du bibion horticole a le dos couleur brique, le mâle est noir mais plus petit que celui de Bibio marci. L'extrémité du tibia antérieur porte un éperon en forme de bec.
-On peut trouver des bibions horticoles au printemps dans les jardins, parfois accouplés sur des murs par temps ensoleillé[2].
+On peut trouver des bibions horticoles au printemps dans les jardins, parfois accouplés sur des murs par temps ensoleillé.
 </t>
         </is>
       </c>
